--- a/数据整理/stocks/A股/创业板/300358-楚天科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300358-楚天科技.xlsx
@@ -1,162 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>002514</t>
-  </si>
-  <si>
-    <t>002581</t>
-  </si>
-  <si>
-    <t>002582</t>
-  </si>
-  <si>
-    <t>002515</t>
-  </si>
-  <si>
-    <t>008884</t>
-  </si>
-  <si>
-    <t>008885</t>
-  </si>
-  <si>
-    <t>招商丰益灵活配置混合A</t>
-  </si>
-  <si>
-    <t>招商丰凯灵活配置混合A</t>
-  </si>
-  <si>
-    <t>招商丰凯灵活配置混合C</t>
-  </si>
-  <si>
-    <t>招商丰益灵活配置混合C</t>
-  </si>
-  <si>
-    <t>博远博锐混合A</t>
-  </si>
-  <si>
-    <t>博远博锐混合C</t>
-  </si>
-  <si>
-    <t>4.90</t>
-  </si>
-  <si>
-    <t>4.96</t>
-  </si>
-  <si>
-    <t>3.19</t>
-  </si>
-  <si>
-    <t>2.51</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>35.14</t>
-  </si>
-  <si>
-    <t>38.64</t>
-  </si>
-  <si>
-    <t>89.03</t>
-  </si>
-  <si>
-    <t>2.86</t>
-  </si>
-  <si>
-    <t>2.82</t>
-  </si>
-  <si>
-    <t>3.57</t>
-  </si>
-  <si>
-    <t>0.1401</t>
-  </si>
-  <si>
-    <t>0.1399</t>
-  </si>
-  <si>
-    <t>0.0900</t>
-  </si>
-  <si>
-    <t>0.0718</t>
-  </si>
-  <si>
-    <t>0.0107</t>
-  </si>
-  <si>
-    <t>0.0011</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -179,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -481,193 +446,645 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>47.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>47.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300358-楚天科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300358-楚天科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300358-楚天科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300358-楚天科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.47</v>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3736</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1143,13 +1186,1295 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3315</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1641</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1392</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011048</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘恒新混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011214</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>65.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011049</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘恒新混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011215</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011025</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011026</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300358-楚天科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300358-楚天科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2405,7 +2406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2416,17 +2417,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2436,14 +2457,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.93</v>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2763</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2452,14 +2495,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.47</v>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2447</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2468,13 +2533,249 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011214</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011215</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300358-楚天科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300358-楚天科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2690,7 +2691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2701,17 +2702,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2721,14 +2742,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.59</v>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3522</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2737,14 +2780,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.93</v>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3196</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2753,14 +2818,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.47</v>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2656</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2769,13 +2856,493 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014932</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300358-楚天科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300358-楚天科技.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>1.34</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.59</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.93</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>0.47</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -566,6 +583,630 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9139</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7804</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3165</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014121</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成品质医疗股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014122</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成品质医疗股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>016060</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1115,7 +1756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1399,7 +2040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2707,7 +3348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3067,7 +3708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300358-楚天科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300358-楚天科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>2.6</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>1.34</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.59</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.93</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>0.47</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -583,6 +600,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4156</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2697</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>016060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1206,7 +1507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1756,7 +2057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2040,7 +2341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3348,7 +3649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3708,7 +4009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
